--- a/user_files/hilarytn/facility1/source1/line_9.xlsx
+++ b/user_files/hilarytn/facility1/source1/line_9.xlsx
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,7 +509,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -544,7 +543,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" t="n">
         <v>530</v>
       </c>
     </row>
@@ -578,7 +577,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" t="n">
         <v>40</v>
       </c>
     </row>
@@ -612,7 +611,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -646,7 +645,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -680,7 +679,7 @@
           <t>79cb63fa-e245-4caa-87cc-011dba597301</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" t="n">
         <v>170</v>
       </c>
     </row>
